--- a/algo/company/yf_stock_list.xlsx
+++ b/algo/company/yf_stock_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t>UNDERLYING</t>
   </si>
@@ -938,6 +938,12 @@
   </si>
   <si>
     <t>OFSS.NS</t>
+  </si>
+  <si>
+    <t>Zomato LTD.</t>
+  </si>
+  <si>
+    <t>ZOMATO.NS</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2536,6 +2542,14 @@
         <v>307</v>
       </c>
     </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
